--- a/quest_dc_05_0000/quest_dc_06_0000/quest_dc_06_0010/quest_dc_06_0020/quest_dc_06_0030/data/covid19_01_all.xlsx
+++ b/quest_dc_05_0000/quest_dc_06_0000/quest_dc_06_0010/quest_dc_06_0020/quest_dc_06_0030/data/covid19_01_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Documents/023_20210225_001_2021年関西科学塾/hp/opening_0000/opening_0010/opening_0020/opening_0030/quest_dc_01_0000/quest_dc_02_0000/quest_dc_02_0010/quest_dc_02_0020/quest_dc_02_0030/quest_dc_02_0040/quest_dc_02_0050/quest_dc_02_0060/quest_dc_03_0000/quest_dc_04_0000/quest_dc_04_0010/quest_dc_04_0020/quest_dc_04_0030/quest_dc_04_0040/quest_dc_04_0050/quest_dc_04_0060/quest_dc_05_0000/quest_dc_06_0000/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_05_0000/quest_dc_06_0000/quest_dc_06_0010/quest_dc_06_0020/quest_dc_06_0030/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF556B-080E-B540-8F7C-6EFECCC81E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8622E83B-6BA5-D14F-B1E9-65A21BF19BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2600" windowWidth="17680" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
